--- a/Data/Spotify/spotify-data.xlsx
+++ b/Data/Spotify/spotify-data.xlsx
@@ -10,7 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet'!$A$1:$G$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet'!$A$1:$H$69</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -487,7 +487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,6 +528,11 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
+          <t>followers</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
           <t>artist-url</t>
         </is>
       </c>
@@ -557,9 +562,12 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>53</v>
-      </c>
-      <c r="G2" t="inlineStr">
+        <v>54</v>
+      </c>
+      <c r="G2" t="n">
+        <v>107680</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/0TcYeHEK9sBtv7xPbKhzHz</t>
         </is>
@@ -590,9 +598,12 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>53</v>
-      </c>
-      <c r="G3" t="inlineStr">
+        <v>54</v>
+      </c>
+      <c r="G3" t="n">
+        <v>107680</v>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/0TcYeHEK9sBtv7xPbKhzHz</t>
         </is>
@@ -610,7 +621,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -623,9 +634,12 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>53</v>
-      </c>
-      <c r="G4" t="inlineStr">
+        <v>54</v>
+      </c>
+      <c r="G4" t="n">
+        <v>107680</v>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/0TcYeHEK9sBtv7xPbKhzHz</t>
         </is>
@@ -656,9 +670,12 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>53</v>
-      </c>
-      <c r="G5" t="inlineStr">
+        <v>54</v>
+      </c>
+      <c r="G5" t="n">
+        <v>107680</v>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/0TcYeHEK9sBtv7xPbKhzHz</t>
         </is>
@@ -691,7 +708,10 @@
       <c r="F6" t="n">
         <v>48</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G6" t="n">
+        <v>222435</v>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/7juKTDFlPesGeWQ1GmjmOv</t>
         </is>
@@ -709,7 +729,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -724,7 +744,10 @@
       <c r="F7" t="n">
         <v>48</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G7" t="n">
+        <v>222435</v>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/7juKTDFlPesGeWQ1GmjmOv</t>
         </is>
@@ -757,7 +780,10 @@
       <c r="F8" t="n">
         <v>48</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G8" t="n">
+        <v>222435</v>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/7juKTDFlPesGeWQ1GmjmOv</t>
         </is>
@@ -790,7 +816,10 @@
       <c r="F9" t="n">
         <v>48</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G9" t="n">
+        <v>222435</v>
+      </c>
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/7juKTDFlPesGeWQ1GmjmOv</t>
         </is>
@@ -823,7 +852,10 @@
       <c r="F10" t="n">
         <v>83</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G10" t="n">
+        <v>26795462</v>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/3WrFJ7ztbogyGnTHbHJFl2</t>
         </is>
@@ -837,26 +869,29 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Now And Then</t>
+          <t>Come Together - Rema...</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>The Beatles 196...</t>
+          <t>Abbey Road (Rem...</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4:09</t>
+          <t>4:20</t>
         </is>
       </c>
       <c r="F11" t="n">
         <v>83</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G11" t="n">
+        <v>26795462</v>
+      </c>
+      <c r="H11" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/3WrFJ7ztbogyGnTHbHJFl2</t>
         </is>
@@ -870,26 +905,29 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Come Together - Rema...</t>
+          <t>Yesterday - Remaster...</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Abbey Road (Rem...</t>
+          <t>Help! (Remaster...</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4:20</t>
+          <t>2:06</t>
         </is>
       </c>
       <c r="F12" t="n">
         <v>83</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G12" t="n">
+        <v>26795462</v>
+      </c>
+      <c r="H12" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/3WrFJ7ztbogyGnTHbHJFl2</t>
         </is>
@@ -903,26 +941,29 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Yesterday - Remaster...</t>
+          <t>Let It Be - Remaster...</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Help! (Remaster...</t>
+          <t>Let It Be (Rema...</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2:06</t>
+          <t>4:03</t>
         </is>
       </c>
       <c r="F13" t="n">
         <v>83</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G13" t="n">
+        <v>26795462</v>
+      </c>
+      <c r="H13" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/3WrFJ7ztbogyGnTHbHJFl2</t>
         </is>
@@ -955,7 +996,10 @@
       <c r="F14" t="n">
         <v>100</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G14" t="n">
+        <v>99099968</v>
+      </c>
+      <c r="H14" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/06HL4z0CvFAxyc27GXpf02</t>
         </is>
@@ -988,7 +1032,10 @@
       <c r="F15" t="n">
         <v>100</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G15" t="n">
+        <v>99099968</v>
+      </c>
+      <c r="H15" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/06HL4z0CvFAxyc27GXpf02</t>
         </is>
@@ -1021,7 +1068,10 @@
       <c r="F16" t="n">
         <v>100</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G16" t="n">
+        <v>99099968</v>
+      </c>
+      <c r="H16" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/06HL4z0CvFAxyc27GXpf02</t>
         </is>
@@ -1054,7 +1104,10 @@
       <c r="F17" t="n">
         <v>100</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G17" t="n">
+        <v>99099968</v>
+      </c>
+      <c r="H17" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/06HL4z0CvFAxyc27GXpf02</t>
         </is>
@@ -1087,7 +1140,10 @@
       <c r="F18" t="n">
         <v>100</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G18" t="n">
+        <v>99099968</v>
+      </c>
+      <c r="H18" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/06HL4z0CvFAxyc27GXpf02</t>
         </is>
@@ -1120,7 +1176,10 @@
       <c r="F19" t="n">
         <v>100</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G19" t="n">
+        <v>99099968</v>
+      </c>
+      <c r="H19" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/06HL4z0CvFAxyc27GXpf02</t>
         </is>
@@ -1153,7 +1212,10 @@
       <c r="F20" t="n">
         <v>100</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G20" t="n">
+        <v>99099968</v>
+      </c>
+      <c r="H20" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/06HL4z0CvFAxyc27GXpf02</t>
         </is>
@@ -1167,7 +1229,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Now That We Don't Ta...</t>
+          <t>august</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1175,18 +1237,21 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1989 (Taylor's ...</t>
+          <t>folklore</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2:26</t>
+          <t>4:22</t>
         </is>
       </c>
       <c r="F21" t="n">
         <v>100</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G21" t="n">
+        <v>99099968</v>
+      </c>
+      <c r="H21" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/06HL4z0CvFAxyc27GXpf02</t>
         </is>
@@ -1200,26 +1265,29 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>august</t>
+          <t>Now That We Don't Ta...</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>folklore</t>
+          <t>1989 (Taylor's ...</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4:22</t>
+          <t>2:26</t>
         </is>
       </c>
       <c r="F22" t="n">
         <v>100</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G22" t="n">
+        <v>99099968</v>
+      </c>
+      <c r="H22" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/06HL4z0CvFAxyc27GXpf02</t>
         </is>
@@ -1252,7 +1320,10 @@
       <c r="F23" t="n">
         <v>100</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G23" t="n">
+        <v>99099968</v>
+      </c>
+      <c r="H23" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/06HL4z0CvFAxyc27GXpf02</t>
         </is>
@@ -1270,7 +1341,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1283,9 +1354,12 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>38</v>
-      </c>
-      <c r="G24" t="inlineStr">
+        <v>39</v>
+      </c>
+      <c r="G24" t="n">
+        <v>105960</v>
+      </c>
+      <c r="H24" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/1Z3fF5lZdCM0ZHugkGoH8s</t>
         </is>
@@ -1316,9 +1390,12 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>38</v>
-      </c>
-      <c r="G25" t="inlineStr">
+        <v>39</v>
+      </c>
+      <c r="G25" t="n">
+        <v>105960</v>
+      </c>
+      <c r="H25" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/1Z3fF5lZdCM0ZHugkGoH8s</t>
         </is>
@@ -1336,7 +1413,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1349,9 +1426,12 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>38</v>
-      </c>
-      <c r="G26" t="inlineStr">
+        <v>39</v>
+      </c>
+      <c r="G26" t="n">
+        <v>105960</v>
+      </c>
+      <c r="H26" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/1Z3fF5lZdCM0ZHugkGoH8s</t>
         </is>
@@ -1365,26 +1445,29 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>John Cage: Dream (Ar...</t>
+          <t>Apartment House 1776...</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>John Cage: Drea...</t>
+          <t>Cage: The Works...</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>6:52</t>
+          <t>1:34</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>38</v>
-      </c>
-      <c r="G27" t="inlineStr">
+        <v>39</v>
+      </c>
+      <c r="G27" t="n">
+        <v>105960</v>
+      </c>
+      <c r="H27" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/1Z3fF5lZdCM0ZHugkGoH8s</t>
         </is>
@@ -1398,26 +1481,29 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>In A Landscape</t>
+          <t>Experiences No. 1</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Cage: Early Pia...</t>
+          <t>Minimalist Drea...</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>12:48</t>
+          <t>2:19</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>38</v>
-      </c>
-      <c r="G28" t="inlineStr">
+        <v>39</v>
+      </c>
+      <c r="G28" t="n">
+        <v>105960</v>
+      </c>
+      <c r="H28" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/1Z3fF5lZdCM0ZHugkGoH8s</t>
         </is>
@@ -1431,26 +1517,29 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Apartment House 1776...</t>
+          <t>In A Landscape</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Cage: The Works...</t>
+          <t>Cage: Early Pia...</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1:34</t>
+          <t>12:48</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>38</v>
-      </c>
-      <c r="G29" t="inlineStr">
+        <v>39</v>
+      </c>
+      <c r="G29" t="n">
+        <v>105960</v>
+      </c>
+      <c r="H29" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/1Z3fF5lZdCM0ZHugkGoH8s</t>
         </is>
@@ -1464,26 +1553,29 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Sonata and Interlude...</t>
+          <t>John Cage: Dream (Ar...</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Joanna MacGrego...</t>
+          <t>John Cage: Drea...</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1:28</t>
+          <t>6:52</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>38</v>
-      </c>
-      <c r="G30" t="inlineStr">
+        <v>39</v>
+      </c>
+      <c r="G30" t="n">
+        <v>105960</v>
+      </c>
+      <c r="H30" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/1Z3fF5lZdCM0ZHugkGoH8s</t>
         </is>
@@ -1497,26 +1589,29 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Sonatas and Interlud...</t>
+          <t>Sonata and Interlude...</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Cage: Sonatas a...</t>
+          <t>Joanna MacGrego...</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1:52</t>
+          <t>1:28</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>38</v>
-      </c>
-      <c r="G31" t="inlineStr">
+        <v>39</v>
+      </c>
+      <c r="G31" t="n">
+        <v>105960</v>
+      </c>
+      <c r="H31" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/1Z3fF5lZdCM0ZHugkGoH8s</t>
         </is>
@@ -1534,7 +1629,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1547,9 +1642,12 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>38</v>
-      </c>
-      <c r="G32" t="inlineStr">
+        <v>39</v>
+      </c>
+      <c r="G32" t="n">
+        <v>105960</v>
+      </c>
+      <c r="H32" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/1Z3fF5lZdCM0ZHugkGoH8s</t>
         </is>
@@ -1563,26 +1661,29 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>In a Landscape</t>
+          <t>Sonatas and Interlud...</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Minimal</t>
+          <t>Cage: Sonatas a...</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3:50</t>
+          <t>1:52</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>38</v>
-      </c>
-      <c r="G33" t="inlineStr">
+        <v>39</v>
+      </c>
+      <c r="G33" t="n">
+        <v>105960</v>
+      </c>
+      <c r="H33" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/1Z3fF5lZdCM0ZHugkGoH8s</t>
         </is>
@@ -1600,7 +1701,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1613,9 +1714,12 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>81</v>
-      </c>
-      <c r="G34" t="inlineStr">
+        <v>80</v>
+      </c>
+      <c r="G34" t="n">
+        <v>9050618</v>
+      </c>
+      <c r="H34" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/43ZHCT0cAZBISjO8DG9PnE</t>
         </is>
@@ -1629,26 +1733,29 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Here Comes Santa Cla...</t>
+          <t>Can't Help Falling i...</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Elvis' Christma...</t>
+          <t>Blue Hawaii</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1:56</t>
+          <t>3:02</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>81</v>
-      </c>
-      <c r="G35" t="inlineStr">
+        <v>80</v>
+      </c>
+      <c r="G35" t="n">
+        <v>9050618</v>
+      </c>
+      <c r="H35" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/43ZHCT0cAZBISjO8DG9PnE</t>
         </is>
@@ -1662,7 +1769,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Can't Help Falling i...</t>
+          <t>Here Comes Santa Cla...</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1670,18 +1777,21 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Blue Hawaii</t>
+          <t>Elvis' Christma...</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3:02</t>
+          <t>1:56</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>81</v>
-      </c>
-      <c r="G36" t="inlineStr">
+        <v>80</v>
+      </c>
+      <c r="G36" t="n">
+        <v>9050618</v>
+      </c>
+      <c r="H36" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/43ZHCT0cAZBISjO8DG9PnE</t>
         </is>
@@ -1695,26 +1805,29 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>O Little Town of Bet...</t>
+          <t>Burning Love</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Elvis' Christma...</t>
+          <t>Elvis (Fool)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2:35</t>
+          <t>2:50</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>81</v>
-      </c>
-      <c r="G37" t="inlineStr">
+        <v>80</v>
+      </c>
+      <c r="G37" t="n">
+        <v>9050618</v>
+      </c>
+      <c r="H37" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/43ZHCT0cAZBISjO8DG9PnE</t>
         </is>
@@ -1747,7 +1860,10 @@
       <c r="F38" t="n">
         <v>51</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G38" t="n">
+        <v>1215550</v>
+      </c>
+      <c r="H38" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/4BclNkZtAUq1YrYNzye3N7</t>
         </is>
@@ -1780,7 +1896,10 @@
       <c r="F39" t="n">
         <v>51</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G39" t="n">
+        <v>1215550</v>
+      </c>
+      <c r="H39" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/4BclNkZtAUq1YrYNzye3N7</t>
         </is>
@@ -1813,7 +1932,10 @@
       <c r="F40" t="n">
         <v>51</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G40" t="n">
+        <v>1215550</v>
+      </c>
+      <c r="H40" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/4BclNkZtAUq1YrYNzye3N7</t>
         </is>
@@ -1831,7 +1953,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1846,7 +1968,10 @@
       <c r="F41" t="n">
         <v>51</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G41" t="n">
+        <v>1215550</v>
+      </c>
+      <c r="H41" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/4BclNkZtAUq1YrYNzye3N7</t>
         </is>
@@ -1879,7 +2004,10 @@
       <c r="F42" t="n">
         <v>51</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G42" t="n">
+        <v>1215550</v>
+      </c>
+      <c r="H42" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/4BclNkZtAUq1YrYNzye3N7</t>
         </is>
@@ -1912,7 +2040,10 @@
       <c r="F43" t="n">
         <v>51</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G43" t="n">
+        <v>1215550</v>
+      </c>
+      <c r="H43" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/4BclNkZtAUq1YrYNzye3N7</t>
         </is>
@@ -1945,7 +2076,10 @@
       <c r="F44" t="n">
         <v>51</v>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G44" t="n">
+        <v>1215550</v>
+      </c>
+      <c r="H44" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/4BclNkZtAUq1YrYNzye3N7</t>
         </is>
@@ -1978,7 +2112,10 @@
       <c r="F45" t="n">
         <v>51</v>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G45" t="n">
+        <v>1215550</v>
+      </c>
+      <c r="H45" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/4BclNkZtAUq1YrYNzye3N7</t>
         </is>
@@ -2011,7 +2148,10 @@
       <c r="F46" t="n">
         <v>51</v>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G46" t="n">
+        <v>1215550</v>
+      </c>
+      <c r="H46" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/4BclNkZtAUq1YrYNzye3N7</t>
         </is>
@@ -2029,7 +2169,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -2044,7 +2184,10 @@
       <c r="F47" t="n">
         <v>51</v>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="G47" t="n">
+        <v>1215550</v>
+      </c>
+      <c r="H47" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/4BclNkZtAUq1YrYNzye3N7</t>
         </is>
@@ -2075,9 +2218,12 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>72</v>
-      </c>
-      <c r="G48" t="inlineStr">
+        <v>73</v>
+      </c>
+      <c r="G48" t="n">
+        <v>7925965</v>
+      </c>
+      <c r="H48" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/3Mcii5XWf6E0lrY3Uky4cA</t>
         </is>
@@ -2108,9 +2254,12 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>72</v>
-      </c>
-      <c r="G49" t="inlineStr">
+        <v>73</v>
+      </c>
+      <c r="G49" t="n">
+        <v>7925965</v>
+      </c>
+      <c r="H49" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/3Mcii5XWf6E0lrY3Uky4cA</t>
         </is>
@@ -2141,9 +2290,12 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>72</v>
-      </c>
-      <c r="G50" t="inlineStr">
+        <v>73</v>
+      </c>
+      <c r="G50" t="n">
+        <v>7925965</v>
+      </c>
+      <c r="H50" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/3Mcii5XWf6E0lrY3Uky4cA</t>
         </is>
@@ -2174,9 +2326,12 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>72</v>
-      </c>
-      <c r="G51" t="inlineStr">
+        <v>73</v>
+      </c>
+      <c r="G51" t="n">
+        <v>7925965</v>
+      </c>
+      <c r="H51" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/3Mcii5XWf6E0lrY3Uky4cA</t>
         </is>
@@ -2194,7 +2349,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -2207,9 +2362,12 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>72</v>
-      </c>
-      <c r="G52" t="inlineStr">
+        <v>73</v>
+      </c>
+      <c r="G52" t="n">
+        <v>7925965</v>
+      </c>
+      <c r="H52" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/3Mcii5XWf6E0lrY3Uky4cA</t>
         </is>
@@ -2240,9 +2398,12 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>72</v>
-      </c>
-      <c r="G53" t="inlineStr">
+        <v>73</v>
+      </c>
+      <c r="G53" t="n">
+        <v>7925965</v>
+      </c>
+      <c r="H53" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/3Mcii5XWf6E0lrY3Uky4cA</t>
         </is>
@@ -2273,9 +2434,12 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>72</v>
-      </c>
-      <c r="G54" t="inlineStr">
+        <v>73</v>
+      </c>
+      <c r="G54" t="n">
+        <v>7925965</v>
+      </c>
+      <c r="H54" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/3Mcii5XWf6E0lrY3Uky4cA</t>
         </is>
@@ -2306,9 +2470,12 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>72</v>
-      </c>
-      <c r="G55" t="inlineStr">
+        <v>73</v>
+      </c>
+      <c r="G55" t="n">
+        <v>7925965</v>
+      </c>
+      <c r="H55" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/3Mcii5XWf6E0lrY3Uky4cA</t>
         </is>
@@ -2339,9 +2506,12 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>72</v>
-      </c>
-      <c r="G56" t="inlineStr">
+        <v>73</v>
+      </c>
+      <c r="G56" t="n">
+        <v>7925965</v>
+      </c>
+      <c r="H56" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/3Mcii5XWf6E0lrY3Uky4cA</t>
         </is>
@@ -2372,9 +2542,12 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>72</v>
-      </c>
-      <c r="G57" t="inlineStr">
+        <v>73</v>
+      </c>
+      <c r="G57" t="n">
+        <v>7925965</v>
+      </c>
+      <c r="H57" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/3Mcii5XWf6E0lrY3Uky4cA</t>
         </is>
@@ -2405,9 +2578,12 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>70</v>
-      </c>
-      <c r="G58" t="inlineStr">
+        <v>71</v>
+      </c>
+      <c r="G58" t="n">
+        <v>5145116</v>
+      </c>
+      <c r="H58" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/2wOqMjp9TyABvtHdOSOTUS</t>
         </is>
@@ -2438,9 +2614,12 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>70</v>
-      </c>
-      <c r="G59" t="inlineStr">
+        <v>71</v>
+      </c>
+      <c r="G59" t="n">
+        <v>5145116</v>
+      </c>
+      <c r="H59" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/2wOqMjp9TyABvtHdOSOTUS</t>
         </is>
@@ -2471,9 +2650,12 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>70</v>
-      </c>
-      <c r="G60" t="inlineStr">
+        <v>71</v>
+      </c>
+      <c r="G60" t="n">
+        <v>5145116</v>
+      </c>
+      <c r="H60" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/2wOqMjp9TyABvtHdOSOTUS</t>
         </is>
@@ -2504,9 +2686,12 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>70</v>
-      </c>
-      <c r="G61" t="inlineStr">
+        <v>71</v>
+      </c>
+      <c r="G61" t="n">
+        <v>5145116</v>
+      </c>
+      <c r="H61" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/2wOqMjp9TyABvtHdOSOTUS</t>
         </is>
@@ -2515,7 +2700,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Harold Styles</t>
+          <t>Harry Styles</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2539,7 +2724,10 @@
       <c r="F62" t="n">
         <v>84</v>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="G62" t="n">
+        <v>30879147</v>
+      </c>
+      <c r="H62" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/6KImCVD70vtIoJWnq6nGn3</t>
         </is>
@@ -2548,7 +2736,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Harold Styles</t>
+          <t>Harry Styles</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2572,7 +2760,10 @@
       <c r="F63" t="n">
         <v>84</v>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="G63" t="n">
+        <v>30879147</v>
+      </c>
+      <c r="H63" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/6KImCVD70vtIoJWnq6nGn3</t>
         </is>
@@ -2581,7 +2772,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Harold Styles</t>
+          <t>Harry Styles</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2605,7 +2796,10 @@
       <c r="F64" t="n">
         <v>84</v>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="G64" t="n">
+        <v>30879147</v>
+      </c>
+      <c r="H64" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/6KImCVD70vtIoJWnq6nGn3</t>
         </is>
@@ -2614,7 +2808,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Harold Styles</t>
+          <t>Harry Styles</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2638,7 +2832,10 @@
       <c r="F65" t="n">
         <v>84</v>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="G65" t="n">
+        <v>30879147</v>
+      </c>
+      <c r="H65" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/6KImCVD70vtIoJWnq6nGn3</t>
         </is>
@@ -2671,7 +2868,10 @@
       <c r="F66" t="n">
         <v>59</v>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="G66" t="n">
+        <v>112109</v>
+      </c>
+      <c r="H66" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/46lnlnlU0dXTDpoAUmH6Qx</t>
         </is>
@@ -2704,7 +2904,10 @@
       <c r="F67" t="n">
         <v>59</v>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="G67" t="n">
+        <v>112109</v>
+      </c>
+      <c r="H67" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/46lnlnlU0dXTDpoAUmH6Qx</t>
         </is>
@@ -2737,7 +2940,10 @@
       <c r="F68" t="n">
         <v>59</v>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="G68" t="n">
+        <v>112109</v>
+      </c>
+      <c r="H68" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/46lnlnlU0dXTDpoAUmH6Qx</t>
         </is>
@@ -2770,14 +2976,17 @@
       <c r="F69" t="n">
         <v>59</v>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="G69" t="n">
+        <v>112109</v>
+      </c>
+      <c r="H69" t="inlineStr">
         <is>
           <t>https://open.spotify.com/artist/46lnlnlU0dXTDpoAUmH6Qx</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G69"/>
+  <autoFilter ref="A1:H69"/>
   <conditionalFormatting sqref="A1:A100">
     <cfRule type="containsText" priority="1" operator="equal" dxfId="0" text="Chumb"/>
     <cfRule type="containsText" priority="2" operator="equal" dxfId="1" text="Silen"/>
@@ -2788,7 +2997,7 @@
     <cfRule type="containsText" priority="7" operator="equal" dxfId="6" text="Garth"/>
     <cfRule type="containsText" priority="8" operator="equal" dxfId="7" text="Ice C"/>
     <cfRule type="containsText" priority="9" operator="equal" dxfId="8" text="Ludwi"/>
-    <cfRule type="containsText" priority="10" operator="equal" dxfId="9" text="Harol"/>
+    <cfRule type="containsText" priority="10" operator="equal" dxfId="9" text="Harry"/>
     <cfRule type="containsText" priority="11" operator="equal" dxfId="0" text="Lou B"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
